--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6725B-0F5C-4D11-B022-2E07DFD241A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B0359-7E56-4C12-9BD6-B33EE3EE6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9B0359-7E56-4C12-9BD6-B33EE3EE6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBAB81F-4BD9-40B3-B72C-855929D66406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBAB81F-4BD9-40B3-B72C-855929D66406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B4205-2CE1-470A-835C-27CFB932C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -166,6 +166,156 @@
   </si>
   <si>
     <t>pp19</t>
+  </si>
+  <si>
+    <t>hsid</t>
+  </si>
+  <si>
+    <t>lpd</t>
+  </si>
+  <si>
+    <t>lufdt</t>
+  </si>
+  <si>
+    <t>fspd</t>
+  </si>
+  <si>
+    <t>pptd</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Complete name</t>
+  </si>
+  <si>
+    <t>desired completed family size normal</t>
+  </si>
+  <si>
+    <t>health services impact delay</t>
+  </si>
+  <si>
+    <t>income expectation averaging time</t>
+  </si>
+  <si>
+    <t>life expectancy normal</t>
+  </si>
+  <si>
+    <t>lifetime perception delay</t>
+  </si>
+  <si>
+    <t>maximum total fertility normal</t>
+  </si>
+  <si>
+    <t>reproductive lifetime</t>
+  </si>
+  <si>
+    <t>social adjustment delay</t>
+  </si>
+  <si>
+    <t>industrial capital initial</t>
+  </si>
+  <si>
+    <t>service capital initial</t>
+  </si>
+  <si>
+    <t>labor force participation fraction</t>
+  </si>
+  <si>
+    <t>labor utilization fraction delay time</t>
+  </si>
+  <si>
+    <t>industrial capital-output ratio 1</t>
+  </si>
+  <si>
+    <t>service capital-output ratio 1</t>
+  </si>
+  <si>
+    <t>average lifetime of industrial capital 1</t>
+  </si>
+  <si>
+    <t>average lifetime of service capital 1</t>
+  </si>
+  <si>
+    <t>fraction of industrial output allocated to consumption 1</t>
+  </si>
+  <si>
+    <t>arable land initial</t>
+  </si>
+  <si>
+    <t>potentially arable land initial</t>
+  </si>
+  <si>
+    <t>land fraction harvested</t>
+  </si>
+  <si>
+    <t>potentially arable land total</t>
+  </si>
+  <si>
+    <t>processing loss</t>
+  </si>
+  <si>
+    <t>average lifetime of agricultural inputs 1</t>
+  </si>
+  <si>
+    <t>land yield factor 1</t>
+  </si>
+  <si>
+    <t>social discount</t>
+  </si>
+  <si>
+    <t>urban-industrial land initial</t>
+  </si>
+  <si>
+    <t>average life of land normal</t>
+  </si>
+  <si>
+    <t>urban-industrial land development time</t>
+  </si>
+  <si>
+    <t>land fertility initial</t>
+  </si>
+  <si>
+    <t>inherent land fertility</t>
+  </si>
+  <si>
+    <t>food shortage perception delay</t>
+  </si>
+  <si>
+    <t>subsistence food per capita</t>
+  </si>
+  <si>
+    <t>Persistent pollution initial</t>
+  </si>
+  <si>
+    <t>Industrial material emission factor</t>
+  </si>
+  <si>
+    <t>Industrial material toxic index</t>
+  </si>
+  <si>
+    <t>Fraction res pers mtl</t>
+  </si>
+  <si>
+    <t>Gha per unit of pollution</t>
+  </si>
+  <si>
+    <t>Fraction agricultural input pers mtl</t>
+  </si>
+  <si>
+    <t>Agricultural material toxicity index</t>
+  </si>
+  <si>
+    <t>Persistent pollution transmission delay</t>
+  </si>
+  <si>
+    <t>Persistent Pollution Gen Fact 1</t>
+  </si>
+  <si>
+    <t>nonrenewable resources initial</t>
+  </si>
+  <si>
+    <t>nonrenewable resource usage factor</t>
   </si>
 </sst>
 </file>
@@ -525,19 +675,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +707,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -570,304 +724,370 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>144000000000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.75</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3200000000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
         <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2">
-        <v>230</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1000000000000</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>0.43</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>210000000000</v>
+        <v>900000000</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>144000000000</v>
+        <v>2300000000</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>20</v>
+        <v>3200000000</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>2300000000</v>
+        <v>0.1</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -880,201 +1100,348 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8200000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>600</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>600</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2">
+        <v>230</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2">
+        <v>25000000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2">
         <v>0.1</v>
       </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4">
         <v>4.0000000000000002E-9</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2">
-        <v>900000000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8200000</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2">
-        <v>600</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="2">
-        <v>600</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="2">
-        <v>25000000</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B4205-2CE1-470A-835C-27CFB932C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9240AC-38D1-45EC-93E9-4248F6B71CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>nonrenewable resource usage factor</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -852,7 +855,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2">
         <v>210000000000</v>
@@ -869,7 +872,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2">
         <v>144000000000</v>
@@ -1007,7 +1010,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2">
         <v>900000000</v>
@@ -1024,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2">
         <v>2300000000</v>
@@ -1143,7 +1146,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2">
         <v>8200000</v>
@@ -1194,7 +1197,7 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2">
         <v>600</v>
@@ -1262,7 +1265,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2">
         <v>25000000</v>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9240AC-38D1-45EC-93E9-4248F6B71CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BB96E-B0B6-4252-8CF2-04242BB783E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>3.8</v>
@@ -770,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2">
         <v>28</v>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -993,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2">
         <v>0.43</v>
@@ -1044,7 +1044,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2">
         <v>0.7</v>
@@ -1112,7 +1112,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2">
         <v>600</v>
@@ -1333,7 +1333,7 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4">
         <v>4.0000000000000002E-9</v>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BB96E-B0B6-4252-8CF2-04242BB783E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046711ED-4923-4235-BBDF-F0884E08DB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -716,228 +716,228 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="2">
-        <v>3.8</v>
+        <v>210000000000</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>144000000000</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>900000000</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="2">
-        <v>28</v>
+        <v>2300000000</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2">
-        <v>20</v>
+        <v>8200000</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>25000000</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>210000000000</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>144000000000</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>0.75</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>0.43</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -949,29 +949,29 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2">
-        <v>14</v>
+      <c r="C16" s="4">
+        <v>4.0000000000000002E-9</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -982,117 +982,115 @@
       <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>0.43</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>900000000</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>2300000000</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>0.7</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>3200000000</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1104,15 +1102,15 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1121,228 +1119,230 @@
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>8200000</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>1000</v>
+        <v>3200000000</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>600</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>25000000</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>0.1</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>0.02</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="4">
-        <v>4.0000000000000002E-9</v>
+        <v>22</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.02</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,6 +1448,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G44">
+    <sortCondition ref="B2:B44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046711ED-4923-4235-BBDF-F0884E08DB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01657C60-46B0-45BF-B2D9-7B055A1D8226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01657C60-46B0-45BF-B2D9-7B055A1D8226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221B7C7-2521-49DD-A082-BEAD7D2364B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
@@ -680,14 +680,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -852,349 +853,349 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>3.8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>0.43</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4">
-        <v>4.0000000000000002E-9</v>
+      <c r="C16" s="3">
+        <v>1E-3</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>0.43</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
-        <v>12</v>
+      <c r="C20" s="4">
+        <v>4.0000000000000002E-9</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>3200000000</v>
+        <v>0.75</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -1206,97 +1207,97 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="2">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2000000000000</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>230</v>
+        <v>3200000000</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -1308,148 +1309,148 @@
         <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="3">
-        <v>1E-3</v>
+      <c r="C39" s="2">
+        <v>30</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1000000000000</v>
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2">
+        <v>230</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G44">
-    <sortCondition ref="B2:B44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:G44">
+    <sortCondition ref="A10:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221B7C7-2521-49DD-A082-BEAD7D2364B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8FB16-C8E3-4202-859F-17459507822D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView minimized="1" xWindow="7035" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C10" sqref="C10:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8FB16-C8E3-4202-859F-17459507822D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F710088B-3914-4829-BB12-140E55D607C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7035" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F710088B-3914-4829-BB12-140E55D607C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF0F28-9289-4FCE-9F7C-7962837484DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>2000000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF0F28-9289-4FCE-9F7C-7962837484DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C48118-5C5A-4826-BEE8-194E9CE77521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
@@ -1252,7 +1252,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>1000000000000</v>
+        <v>2000000000000</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221B7C7-2521-49DD-A082-BEAD7D2364B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51687B1-0118-944B-B912-EBEE4F2D8F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="25600" yWindow="-1600" windowWidth="38400" windowHeight="21600" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -680,19 +680,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -732,7 +732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -749,7 +749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -766,7 +766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -783,7 +783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -800,7 +800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -817,7 +817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -834,7 +834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -851,12 +851,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -868,12 +868,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
@@ -885,12 +885,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2">
         <v>1000</v>
@@ -902,12 +902,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -921,12 +921,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -955,12 +955,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C16" s="3">
         <v>1E-3</v>
@@ -972,12 +972,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2">
         <v>0.43</v>
@@ -989,12 +989,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2">
         <v>0.02</v>
@@ -1006,12 +1006,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1023,12 +1023,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4">
         <v>4.0000000000000002E-9</v>
@@ -1040,12 +1040,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -1057,12 +1057,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -1074,12 +1074,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -1091,12 +1091,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2">
         <v>0.1</v>
@@ -1108,12 +1108,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2">
         <v>10</v>
@@ -1125,12 +1125,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2">
         <v>28</v>
@@ -1142,12 +1142,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2">
         <v>0.7</v>
@@ -1159,12 +1159,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2">
         <v>0.75</v>
@@ -1176,12 +1176,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2">
         <v>20</v>
@@ -1193,12 +1193,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -1210,12 +1210,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1227,12 +1227,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2">
         <v>12</v>
@@ -1244,12 +1244,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
+      <c r="B33" t="s">
+        <v>94</v>
       </c>
       <c r="C33" s="1">
         <v>2000000000000</v>
@@ -1261,12 +1261,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1278,12 +1278,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2">
         <v>3200000000</v>
@@ -1295,12 +1295,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2">
         <v>0.1</v>
@@ -1312,12 +1312,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1329,12 +1329,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2">
         <v>20</v>
@@ -1346,12 +1346,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2">
         <v>30</v>
@@ -1363,12 +1363,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2">
         <v>20</v>
@@ -1380,12 +1380,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -1397,12 +1397,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2">
         <v>7.0000000000000007E-2</v>
@@ -1414,12 +1414,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2">
         <v>230</v>
@@ -1431,12 +1431,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2">
         <v>10</v>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C48118-5C5A-4826-BEE8-194E9CE77521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B632A71A-F6A4-4403-91E1-92C98AC8551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Parameters_to_be_analysed.xlsx
+++ b/Parameters_to_be_analysed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B632A71A-F6A4-4403-91E1-92C98AC8551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -324,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
@@ -677,22 +676,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -732,7 +731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -749,7 +748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -766,7 +765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -783,7 +782,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -800,7 +799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -817,7 +816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -834,7 +833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -851,12 +850,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -868,12 +867,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
@@ -885,12 +884,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2">
         <v>1000</v>
@@ -902,12 +901,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -921,12 +920,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -938,12 +937,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2">
         <v>3.8</v>
@@ -955,12 +954,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C16" s="3">
         <v>1E-3</v>
@@ -972,12 +971,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2">
         <v>0.43</v>
@@ -989,12 +988,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2">
         <v>0.02</v>
@@ -1006,12 +1005,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1023,12 +1022,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4">
         <v>4.0000000000000002E-9</v>
@@ -1040,12 +1039,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -1057,12 +1056,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -1074,12 +1073,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -1091,12 +1090,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2">
         <v>0.1</v>
@@ -1108,12 +1107,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2">
         <v>10</v>
@@ -1125,12 +1124,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2">
         <v>28</v>
@@ -1142,12 +1141,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2">
         <v>0.7</v>
@@ -1159,12 +1158,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2">
         <v>0.75</v>
@@ -1176,12 +1175,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2">
         <v>20</v>
@@ -1193,12 +1192,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -1210,12 +1209,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1227,12 +1226,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2">
         <v>12</v>
@@ -1244,12 +1243,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
+      <c r="B33" t="s">
+        <v>94</v>
       </c>
       <c r="C33" s="1">
         <v>2000000000000</v>
@@ -1261,12 +1260,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1278,12 +1277,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2">
         <v>3200000000</v>
@@ -1295,12 +1294,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2">
         <v>0.1</v>
@@ -1312,12 +1311,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1329,12 +1328,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2">
         <v>20</v>
@@ -1346,12 +1345,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2">
         <v>30</v>
@@ -1363,12 +1362,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2">
         <v>20</v>
@@ -1380,12 +1379,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -1397,7 +1396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1448,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:G44">
+  <sortState ref="A10:G44">
     <sortCondition ref="A10:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
